--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560331/JX560331_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560331/JX560331_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89295524412</v>
+        <v>45441.83321505554</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1287_1291insatag']</t>
+          <t>['1286_1375del', '1139_1161insgagcaggagaggacctacttca', '1313_1332insataacgccaacgtcaagaa', '1106_1123inscatggccgcctcgccac', '1108_1241insggcgtgatggaaagatccggtttccctctagccaattaccgctccagtctgtgatcgatccattagccgtcttgaaggacgccccggaccatgagtaacccgctgagtccgtccggtaggtagaggcacggta']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89295526149</v>
+        <v>45441.8332150729</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['168_169del']</t>
+          <t>['200_325inscgattaccaaacgcctaaagatgtaaacgctccgtggactctaccaagttcagccactgaggcgagcgattccaatcatcaccatgcaggtagtcagcgggtcgtacgagcgctcgcaccgtcaa', '251_267insggttccaattccccag', '250_375del', '254_279del', '242_358instcgggtgcagataccttactgagttcgcgccaagggagtaccggcgcacccgataacatacatagggaccacagaacaacataacgtgctgtaaacgatatctacacccaagattg']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89295527891</v>
+        <v>45441.83321509616</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['1767_1768insg']</t>
+          <t>['1751_1825instatctcgacagggaccagcaccagagacctgccaaacgcacggttgccagcatggtggacgacagtagcgcaaa', '1737_1858del', '1817_1831del', '1754_1806del', '1751_1821insatcctagccacgaacctgctatgtccgaattcaggcaattgtttctcttccatacaaacaccgtcccatg']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89295530206</v>
+        <v>45441.83321522639</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1206c&gt;a']</t>
+          <t>['1251_1304insagaggcaactaccgcgtacgcgaaaaggtggcacgtcgtgcggaataagcgcc', '1244_1261inscgagatacccgtacctt', '1310_1438del', '1253_1309del', '1269_1305del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['179_180del']</t>
+          <t>['238_298del', '179_306del', '208_262inscgagagagttcgaaccttgatgacgcttaagagtaggcacgatcaatcgtctac', '244_282insaaatccgccgctatcaggatccttcttgttatacggta', '250_330del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89295531363</v>
+        <v>45441.83321524375</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1318_1322del']</t>
+          <t>['1314_1449insttgtaacaaacttatcgcacgtaaatattctatcgctaacaactgagcatttcttggcgtgaatttagacgtcggagggattacataaagacattgttgtcttagttgacttcacacatagacccggtagcaaca', '1263_1410del', '1186_1316del', '1254_1272inscttgctatacctgtactc', '1087_1157insgtgcactaaggactgactcttccgaaacagccgccgcgcatctgttgggaagtttggatacgtagcaaga']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['1756_1758del']</t>
+          <t>['1810_1889del', '1795_1901del', '1787_1888del', '1736_1826insctgcactaaatgacgcggcaaagcagaagaagggagttcgactgaaaacgctgtgagtaggatattctggataactgatccaccctgtgg', '1837_1911insgctccccgagaccttatgcgctcccgaaacagtggggatgtgctaaaatgatctttgttggcgtggagagaagc']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89295533099</v>
+        <v>45441.83321526111</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['163_166insaag']</t>
+          <t>['176_287inscacatttggcgtaactcaatgcgattagccttactgggtcacataacaaaccgaccttactcggccgtacacaagcagattcgtgcctccgaaccaacctcactgcacaca', '158_171del', '251_327insaatggaagctgttcgcttcgtgtccgacccagtatattgtatggttctgggatgacgcatataaacgtcggcacga', '251_296insaatctcctacacttcgaggtgcgttccgtcctatagtaagtttat', '154_208del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['1838_1839del']</t>
+          <t>['1803_1921del', '1821_1919del', '1775_1894insctaatgctagcagaagattcacaaaataatagcgacagtacaggaatcggatcgttcattagataagcggcacctgcaacgcgtagagaacggacgggaccgctgccgatgaacgtgct', '1830_1858insgtaggcatgagacagattaccttggtgg', '1788_1864del']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89295534257</v>
+        <v>45441.83321527849</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1128_1131instaa']</t>
+          <t>['1120_1262insgccagttctggttatatcagatatcgtctcatggccagtttattcgaagttcgtggccagctatcaactggtgatcaggttttcacatcaggcttcaagtgataaggtatggcctcgcttgttagctggcccagtaggtacc', '1172_1236insgtctacgccagtgcaacacaccgaatacgcgcgaatcaaatcttataactctggagactgggtt', '1151_1280insccctggaccttggtactttttgcttttctcctcttgacttttcgtatgtacatcgcctacccggtacctagaccacgctggacctacgtggagatgtcatgtattcctggctcctaacataggagtccg', '1309_1442del', '1252_1299del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['237_239instg']</t>
+          <t>['167_196instcgaatatgaaatatacggacttatttgt', '168_223insctgtcgggcacgcatagcgagtggttcggataccactctaggagacgtagccaca', '175_264del', '166_189inscacggttttctttaagtcttctg', '247_376instacaccaagtgccatctgcgaacatcgtaaatatatctttcacgctacatacttcttggtctggagctctgctctataactctaggtggctccaacacgcggtgtcgacacggtcctcgaaacgtgagg']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['1821c&gt;t']</t>
+          <t>['1790_1923instcccctaagaaccctattcctcttccaacacattcattccaaaattctataaatgtgctcgtaatagtcttctaagtcggtaggaatattataccgacccacgcttgatagtcaaagggtggtatgtctcgtt', '1802_1874instcacgaacgtggtgccggcgatatgtgcgatcatattgatccgtatgcgcaggaatagaaccctcagaagcc', '1746_1892instaccgtcggaaaactactatcccgattactggacaaatcagaggatgcttcttggtaatcgttggacggcgagggtgtcgtctgagttctccgctccaagagaattagcctagcgccaagaaactcacagagtgtattctccaatt', '1833_1844del', '1791_1866del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89295535994</v>
+        <v>45441.83321529583</v>
       </c>
     </row>
   </sheetData>
